--- a/biology/Médecine/Klaus_Patau/Klaus_Patau.xlsx
+++ b/biology/Médecine/Klaus_Patau/Klaus_Patau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Klaus Patau, né le 30 septembre 1908 à Gelsenkirchen et mort le 30 novembre 1975 à Madison (Wisconsin), est un scientifique et généticien américain en poste au département de génétique à l'université du Wisconsin à Madison, tout comme l'était sa femme et collaboratrice, la cytogénéticienne finlandaise Eeva Therman (1916–2004). Il est le premier à décrire en 1960 la trisomie 13[1].
-Le syndrome causé par la trisomie 13 est quelquefois aussi nommé le Syndrome de Patau. Il est aussi connu sous le nom de Syndrome de Bartholin-Patau puisque la trisomie 13 fut observée pour la première fois en 1657 par Thomas Bartholin[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Klaus Patau, né le 30 septembre 1908 à Gelsenkirchen et mort le 30 novembre 1975 à Madison (Wisconsin), est un scientifique et généticien américain en poste au département de génétique à l'université du Wisconsin à Madison, tout comme l'était sa femme et collaboratrice, la cytogénéticienne finlandaise Eeva Therman (1916–2004). Il est le premier à décrire en 1960 la trisomie 13.
+Le syndrome causé par la trisomie 13 est quelquefois aussi nommé le Syndrome de Patau. Il est aussi connu sous le nom de Syndrome de Bartholin-Patau puisque la trisomie 13 fut observée pour la première fois en 1657 par Thomas Bartholin.
 </t>
         </is>
       </c>
